--- a/Assets/Items.xlsx
+++ b/Assets/Items.xlsx
@@ -24,16 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMMON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>검이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,7 +97,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rarlity</t>
+    <t>icon_coin-crown-gold_LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_gem-blue_LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥬얼이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기소환권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구소환권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_book_LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기소환권이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_paper-old_LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구소환권이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,35 +491,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -468,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -485,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -502,16 +561,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -519,16 +578,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -536,16 +595,84 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
